--- a/biology/Botanique/Calicotome_villosa/Calicotome_villosa.xlsx
+++ b/biology/Botanique/Calicotome_villosa/Calicotome_villosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calicotome villosa, de nom commun Calicotome velue ou Cytise laineux[1], est une espèce de plante de la famille des Fabaceae et du genre Calicotome.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calicotome villosa, de nom commun Calicotome velue ou Cytise laineux, est une espèce de plante de la famille des Fabaceae et du genre Calicotome.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calicotome villosa est un arbuste pouvant atteindre 2 m de hauteur. Les épines et les branches ont une couleur blanchâtre et sont traversées longitudinalement par des rainures vertes qui lui donnent un aspect strié. Il est très similaire à Calicotome spinosa mais avec les feuilles pourvues d'un fin revêtement appliqué[2]. Les rameaux et les légumineuses sont tomenteuses. Il a des feuilles trifoliées avec des poils sur la face inférieure, caduques. Ses gousses sont couvertes de poils blanchâtres, d'où le nom de villosa. Les fleurs jaunes naissent en groupes de 4 à 12 nœuds sur les épines, le calice est en coupe et poilu, la corolle jaune mesure de 12 à 15 mm. L'arbuste fleurit de janvier à avril.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calicotome villosa est un arbuste pouvant atteindre 2 m de hauteur. Les épines et les branches ont une couleur blanchâtre et sont traversées longitudinalement par des rainures vertes qui lui donnent un aspect strié. Il est très similaire à Calicotome spinosa mais avec les feuilles pourvues d'un fin revêtement appliqué. Les rameaux et les légumineuses sont tomenteuses. Il a des feuilles trifoliées avec des poils sur la face inférieure, caduques. Ses gousses sont couvertes de poils blanchâtres, d'où le nom de villosa. Les fleurs jaunes naissent en groupes de 4 à 12 nœuds sur les épines, le calice est en coupe et poilu, la corolle jaune mesure de 12 à 15 mm. L'arbuste fleurit de janvier à avril.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calicotome villosa est présent tout autour de la mer Méditerranée[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calicotome villosa est présent tout autour de la mer Méditerranée.
 Il est présent dans les coteaux rocheux et des endroits broussailleux, des bosquets de palmiers nains et sous-bois de forêts de chênes-lièges et de pins.
 </t>
         </is>
@@ -574,10 +590,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calicotome villosa peut donner une teinture verte de la même manière que Ulex europaeus[4].
-Il possède des vertus antiseptiques[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calicotome villosa peut donner une teinture verte de la même manière que Ulex europaeus.
+Il possède des vertus antiseptiques.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasite Aphis cytisorum (sv). Le fruit a pour parasite Bruchus ulicis (nl), Bruchus perezi (nl), Bruchidius lividimanus, Bruchidius villosus, Exapion canescens, Asphondylia calycotomae (sv). La feuille a pour parasite Orthotylus virescens, Bryobia graminum (sv), Agonopterix scopariella, Oryxolaemus flavifemoratus, Aspidiotus nerii, Oryxolaemus scabiosus (pt), Phyllonorycter triflorella (en), Leucoptera calycotomella (en), Ctenocallis israelicus (sv). Le bourgeon a pour parasite Asphondylia calycotomae. La racine a pour parasite Anthaxia funerula (pt), Anthaxia myrmidon (id), Phloeotribus cristatus, Liparthrum genistae, Phloeotribus rhododactylus (pt), Trifurcula calycotomella (en), Arytainilla cytisi (sv)[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasite Aphis cytisorum (sv). Le fruit a pour parasite Bruchus ulicis (nl), Bruchus perezi (nl), Bruchidius lividimanus, Bruchidius villosus, Exapion canescens, Asphondylia calycotomae (sv). La feuille a pour parasite Orthotylus virescens, Bryobia graminum (sv), Agonopterix scopariella, Oryxolaemus flavifemoratus, Aspidiotus nerii, Oryxolaemus scabiosus (pt), Phyllonorycter triflorella (en), Leucoptera calycotomella (en), Ctenocallis israelicus (sv). Le bourgeon a pour parasite Asphondylia calycotomae. La racine a pour parasite Anthaxia funerula (pt), Anthaxia myrmidon (id), Phloeotribus cristatus, Liparthrum genistae, Phloeotribus rhododactylus (pt), Trifurcula calycotomella (en), Arytainilla cytisi (sv).
 </t>
         </is>
       </c>
